--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="81">
   <si>
     <t>Уровень</t>
   </si>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,7 +604,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F66"/>
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,9 +664,6 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
@@ -684,9 +681,6 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
@@ -724,9 +718,6 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
@@ -744,9 +735,6 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
@@ -784,9 +772,6 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
       <c r="E9" t="s">
         <v>51</v>
       </c>
@@ -804,9 +789,6 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
       <c r="E10" t="s">
         <v>52</v>
       </c>
@@ -844,9 +826,6 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
       <c r="E12" t="s">
         <v>61</v>
       </c>
@@ -864,9 +843,6 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
       <c r="E13" t="s">
         <v>62</v>
       </c>
@@ -884,9 +860,6 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
       <c r="E14" t="s">
         <v>63</v>
       </c>
@@ -924,9 +897,6 @@
       <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
       <c r="E16" t="s">
         <v>71</v>
       </c>
@@ -944,9 +914,6 @@
       <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
       <c r="E17" t="s">
         <v>72</v>
       </c>
@@ -964,9 +931,6 @@
       <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
       <c r="E18" t="s">
         <v>73</v>
       </c>
@@ -984,9 +948,6 @@
       <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
       <c r="E19" t="s">
         <v>74</v>
       </c>
@@ -1024,9 +985,6 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
       <c r="E21" t="s">
         <v>30</v>
       </c>
@@ -1044,9 +1002,6 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
       <c r="E22" t="s">
         <v>31</v>
       </c>
@@ -1064,9 +1019,6 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
       <c r="E23" t="s">
         <v>32</v>
       </c>
@@ -1084,9 +1036,6 @@
       <c r="C24" t="s">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
       <c r="E24" t="s">
         <v>33</v>
       </c>
@@ -1124,9 +1073,6 @@
       <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
       <c r="E26" t="s">
         <v>43</v>
       </c>
@@ -1144,9 +1090,6 @@
       <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
       <c r="E27" t="s">
         <v>44</v>
       </c>
@@ -1164,9 +1107,6 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
       <c r="E28" t="s">
         <v>45</v>
       </c>
@@ -1204,9 +1144,6 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
       <c r="E30" t="s">
         <v>54</v>
       </c>
@@ -1224,9 +1161,6 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
       <c r="E31" t="s">
         <v>55</v>
       </c>
@@ -1264,9 +1198,6 @@
       <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" t="s">
-        <v>18</v>
-      </c>
       <c r="E33" t="s">
         <v>65</v>
       </c>
@@ -1284,9 +1215,6 @@
       <c r="C34" t="s">
         <v>11</v>
       </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
       <c r="E34" t="s">
         <v>66</v>
       </c>
@@ -1304,9 +1232,6 @@
       <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
       <c r="E35" t="s">
         <v>67</v>
       </c>
@@ -1344,9 +1269,6 @@
       <c r="C37" t="s">
         <v>12</v>
       </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
       <c r="E37" t="s">
         <v>76</v>
       </c>
@@ -1364,9 +1286,6 @@
       <c r="C38" t="s">
         <v>12</v>
       </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
       <c r="E38" t="s">
         <v>72</v>
       </c>
@@ -1384,9 +1303,6 @@
       <c r="C39" t="s">
         <v>12</v>
       </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
       <c r="E39" t="s">
         <v>73</v>
       </c>
@@ -1404,9 +1320,6 @@
       <c r="C40" t="s">
         <v>12</v>
       </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
       <c r="E40" t="s">
         <v>74</v>
       </c>
@@ -1444,9 +1357,6 @@
       <c r="C42" t="s">
         <v>3</v>
       </c>
-      <c r="D42" t="s">
-        <v>21</v>
-      </c>
       <c r="E42" t="s">
         <v>35</v>
       </c>
@@ -1464,9 +1374,6 @@
       <c r="C43" t="s">
         <v>3</v>
       </c>
-      <c r="D43" t="s">
-        <v>21</v>
-      </c>
       <c r="E43" t="s">
         <v>36</v>
       </c>
@@ -1484,9 +1391,6 @@
       <c r="C44" t="s">
         <v>3</v>
       </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
       <c r="E44" t="s">
         <v>37</v>
       </c>
@@ -1504,9 +1408,6 @@
       <c r="C45" t="s">
         <v>3</v>
       </c>
-      <c r="D45" t="s">
-        <v>21</v>
-      </c>
       <c r="E45" t="s">
         <v>38</v>
       </c>
@@ -1544,9 +1445,6 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
       <c r="E47" t="s">
         <v>41</v>
       </c>
@@ -1564,9 +1462,6 @@
       <c r="C48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
-        <v>22</v>
-      </c>
       <c r="E48" t="s">
         <v>47</v>
       </c>
@@ -1584,9 +1479,6 @@
       <c r="C49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" t="s">
-        <v>22</v>
-      </c>
       <c r="E49" t="s">
         <v>43</v>
       </c>
@@ -1604,9 +1496,6 @@
       <c r="C50" t="s">
         <v>6</v>
       </c>
-      <c r="D50" t="s">
-        <v>22</v>
-      </c>
       <c r="E50" t="s">
         <v>48</v>
       </c>
@@ -1624,9 +1513,6 @@
       <c r="C51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" t="s">
-        <v>22</v>
-      </c>
       <c r="E51" t="s">
         <v>49</v>
       </c>
@@ -1664,9 +1550,6 @@
       <c r="C53" t="s">
         <v>8</v>
       </c>
-      <c r="D53" t="s">
-        <v>23</v>
-      </c>
       <c r="E53" t="s">
         <v>57</v>
       </c>
@@ -1684,9 +1567,6 @@
       <c r="C54" t="s">
         <v>8</v>
       </c>
-      <c r="D54" t="s">
-        <v>23</v>
-      </c>
       <c r="E54" t="s">
         <v>58</v>
       </c>
@@ -1704,9 +1584,6 @@
       <c r="C55" t="s">
         <v>8</v>
       </c>
-      <c r="D55" t="s">
-        <v>23</v>
-      </c>
       <c r="E55" t="s">
         <v>59</v>
       </c>
@@ -1744,9 +1621,6 @@
       <c r="C57" t="s">
         <v>11</v>
       </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
       <c r="E57" t="s">
         <v>65</v>
       </c>
@@ -1764,9 +1638,6 @@
       <c r="C58" t="s">
         <v>11</v>
       </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
       <c r="E58" t="s">
         <v>66</v>
       </c>
@@ -1784,9 +1655,6 @@
       <c r="C59" t="s">
         <v>11</v>
       </c>
-      <c r="D59" t="s">
-        <v>10</v>
-      </c>
       <c r="E59" t="s">
         <v>67</v>
       </c>
@@ -1804,9 +1672,6 @@
       <c r="C60" t="s">
         <v>11</v>
       </c>
-      <c r="D60" t="s">
-        <v>10</v>
-      </c>
       <c r="E60" t="s">
         <v>68</v>
       </c>
@@ -1824,9 +1689,6 @@
       <c r="C61" t="s">
         <v>11</v>
       </c>
-      <c r="D61" t="s">
-        <v>10</v>
-      </c>
       <c r="E61" t="s">
         <v>69</v>
       </c>
@@ -1864,9 +1726,6 @@
       <c r="C63" t="s">
         <v>12</v>
       </c>
-      <c r="D63" t="s">
-        <v>24</v>
-      </c>
       <c r="E63" t="s">
         <v>78</v>
       </c>
@@ -1884,9 +1743,6 @@
       <c r="C64" t="s">
         <v>12</v>
       </c>
-      <c r="D64" t="s">
-        <v>24</v>
-      </c>
       <c r="E64" t="s">
         <v>72</v>
       </c>
@@ -1904,9 +1760,6 @@
       <c r="C65" t="s">
         <v>12</v>
       </c>
-      <c r="D65" t="s">
-        <v>24</v>
-      </c>
       <c r="E65" t="s">
         <v>73</v>
       </c>
@@ -1923,9 +1776,6 @@
       </c>
       <c r="C66" t="s">
         <v>12</v>
-      </c>
-      <c r="D66" t="s">
-        <v>24</v>
       </c>
       <c r="E66" t="s">
         <v>74</v>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -776,7 +776,7 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,33 +28,18 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Определены базовые требования к производству и необходимые изменения в существующем производственном процессе</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Определена архитектура верхнего уровня: взаимодействие с внешними компонентами в системах железнодорожного транспорта</t>
   </si>
   <si>
     <t>Определено наличие основных компетенций в команде. Проведена предварительная оценка трудозатрат. Определена достаточность ресурсов</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Определение</t>
   </si>
   <si>
@@ -211,9 +196,6 @@
     <t>Продемонстрировано полномасштабное производство. Продукт выпускается серийно</t>
   </si>
   <si>
-    <t>Внедрена система управления качеством (например, ISO 9000)</t>
-  </si>
-  <si>
     <t>Разработан регламент выявления дефектов  и их устранения в производстве</t>
   </si>
   <si>
@@ -355,45 +337,21 @@
     <t>Организационно-штатная структура изготовителя приведена в соответствие с бизнес-моделью</t>
   </si>
   <si>
-    <t>Определены потенциальные потребители продукта/технологии. Оценен общий потенциал рынка (PAM)</t>
-  </si>
-  <si>
-    <t>Получена оценка рынка PAM (глобальный рынок, в том числе по всем товарам-заменителям, не ограниченный географией или другими факторами) в натуральном  и стоимостном выражениях</t>
-  </si>
-  <si>
-    <t>Уточнен и сегментирован целевой рынок (TAM), определен его общий объем. Получены предварительные оценки полной стоимости владения создаваемым продуктом/технологией</t>
-  </si>
-  <si>
     <t>Проведено сегментирование рынка и потенциальных заказчиков/потребителей в отношении их потребительских предпочтений.</t>
   </si>
   <si>
-    <t>Получена в стоимостном и натуральном виде оценка рынка TAM (Total Available Market) – объем рынка для клиентов на целевом рынке, которые нуждаются (не обязательно могут себе это позволить) в продуктах или услугах, находящихся в той же категории продуктов/услуг, что и разрабатываемый продукт/технология</t>
-  </si>
-  <si>
     <t>Выявлены предпочтения потенциальных потребителей в отношении характеристик, сроков появления на рынке и цены создаваемого продукта/технологии</t>
   </si>
   <si>
     <t>Установлена обратная связь с потенциальными потребителями, выявлены их предпочтения  в части характеристик продукта/технологии, сроков появления продукта/технологии на рынке и его цены</t>
   </si>
   <si>
-    <t>Уточнены сегменты рынка TAM, выявлены ниши рынка, на которые целесообразно ориентироваться при разработке технологии/продукта/услуги</t>
-  </si>
-  <si>
-    <t>Уточнены конкуренты, подтверждено, что стоимость создаваемого продукта/технологии не будет выше, чем у конкурентов. Уточнен общий потенциал рынка (SAM)</t>
-  </si>
-  <si>
     <t>Начато формирование программы продвижения нового продукта/технологии на рынок</t>
   </si>
   <si>
-    <t>Получена в стоимостном и натуральном виде оценка рынка SAM (Serviceable Available Market)- клиентский сегмент или объем рынка (доля от ТАМ), в рамках которых потребитель готов купить продукты или услуги такие же, как разрабатываемый продукт/технология</t>
-  </si>
-  <si>
     <t>Разработана бизнес-модель. Определена конкурентноспособная цена. Показана положительная маржинальность коммерциализации создаваемого продукта/технологии</t>
   </si>
   <si>
-    <t>Определена бизнес-модель: кто спонсор, кто покупатель B2B, B2C, кто продавец, какова организация поддержки жизненного цикла продукта</t>
-  </si>
-  <si>
     <t>Сделана предварительная оценка прибыли, которая может быть получена в случае производства и реализации разрабатываемой технологии/продукта по выбранным перспективным способам применения</t>
   </si>
   <si>
@@ -406,12 +364,6 @@
     <t>Уточнена прибыль от коммерциализации создаваемого продукта/технологии по уточненным сегментам рынка и перспективным способам применения</t>
   </si>
   <si>
-    <t>Уточнен и сегментирован целевой рынок (SOM), определен его общий объем</t>
-  </si>
-  <si>
-    <t>Получена в стоимостном и натуральном виде оценка рынка SOM (Serviceable Obtainable Market)- объем рынка, который производящая продукт/технологию компания намерена и способна занять, учитывая его стратегию развития и действия конкурентов) с учетом выбранных каналов продаж</t>
-  </si>
-  <si>
     <t>Разработана модель продвижения и послепродажного обслуживания</t>
   </si>
   <si>
@@ -431,12 +383,60 @@
   </si>
   <si>
     <t>Осуществляется контроль величины себестоимости производства продукта/технологии. При необходимости инициируются процессы оптимизации производства</t>
+  </si>
+  <si>
+    <t>TRL</t>
+  </si>
+  <si>
+    <t>MRL</t>
+  </si>
+  <si>
+    <t>Определены потенциальные потребители продукта/технологии. Оценен общий потенциал рынка (PAMRL)</t>
+  </si>
+  <si>
+    <t>Получена оценка рынка PAMRL (глобальный рынок, в том числе по всем товарам-заменителям, не ограниченный географией или другими факторами) в натуральном  и стоимостном выражениях</t>
+  </si>
+  <si>
+    <t>Уточнен и сегментирован целевой рынок (TRLAMRL), определен его общий объем. Получены предварительные оценки полной стоимости владения создаваемым продуктом/технологией</t>
+  </si>
+  <si>
+    <t>Уточнены сегменты рынка TRLAMRL, выявлены ниши рынка, на которые целесообразно ориентироваться при разработке технологии/продукта/услуги</t>
+  </si>
+  <si>
+    <t>Уточнены конкуренты, подтверждено, что стоимость создаваемого продукта/технологии не будет выше, чем у конкурентов. Уточнен общий потенциал рынка (SAMRL)</t>
+  </si>
+  <si>
+    <t>ERL</t>
+  </si>
+  <si>
+    <t>CRL</t>
+  </si>
+  <si>
+    <t>Получена в стоимостном и натуральном виде оценка рынка SAMRL (SERLrviCRLERLablERL AvailablERL MRLarkERLTRL)- клиентский сегмент или объем рынка (доля от ТАМ), в рамках которых потребитель готов купить продукты или услуги такие же, как разрабатываемый продукт/технология</t>
+  </si>
+  <si>
+    <t>Определена бизнес-модель: кто спонсор, кто покупатель B2B, B2CRL, кто продавец, какова организация поддержки жизненного цикла продукта</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>Получена в стоимостном и натуральном виде оценка рынка TRLAMRL (TRLORLTRLal AvailablERL MRLarkERLTRL) – объем рынка для клиентов на целевом рынке, которые нуждаются (не обязательно могут себе это позволить) в продуктах или услугах, находящихся в той же категории продуктов/услуг, что и разрабатываемый продукт/технология</t>
+  </si>
+  <si>
+    <t>Уточнен и сегментирован целевой рынок (SORLMRL), определен его общий объем</t>
+  </si>
+  <si>
+    <t>Получена в стоимостном и натуральном виде оценка рынка SORLMRL (SERLrviCRLERLablERL ORLbTRLainablERL MRLarkERLTRL)- объем рынка, который производящая продукт/технологию компания намерена и способна занять, учитывая его стратегию развития и действия конкурентов) с учетом выбранных каналов продаж</t>
+  </si>
+  <si>
+    <t>Внедрена система управления качеством (например, ISORL 9000)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -776,7 +776,7 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -813,16 +813,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -893,13 +893,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -967,16 +967,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1004,16 +1004,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1024,13 +1024,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1078,16 +1078,16 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1115,16 +1115,16 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1246,13 +1246,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1320,13 +1320,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1337,16 +1337,16 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -1357,13 +1357,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -1374,16 +1374,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -1411,16 +1411,16 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -1431,13 +1431,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -1468,13 +1468,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -1559,16 +1559,16 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -1596,16 +1596,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -1633,16 +1633,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -1653,13 +1653,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -1670,16 +1670,16 @@
         <v>6</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>6</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -1727,13 +1727,13 @@
         <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -1744,16 +1744,16 @@
         <v>6</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         <v>6</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -1781,16 +1781,16 @@
         <v>6</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -1801,13 +1801,13 @@
         <v>6</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>6</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -1838,13 +1838,13 @@
         <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -1875,13 +1875,13 @@
         <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>7</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -1912,13 +1912,13 @@
         <v>7</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -1929,16 +1929,16 @@
         <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -1949,13 +1949,13 @@
         <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -1966,16 +1966,16 @@
         <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -1986,13 +1986,13 @@
         <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -2003,16 +2003,16 @@
         <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -2023,13 +2023,13 @@
         <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -2040,16 +2040,16 @@
         <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -2060,13 +2060,13 @@
         <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -2077,16 +2077,16 @@
         <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -2097,13 +2097,13 @@
         <v>8</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>8</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -2151,16 +2151,16 @@
         <v>8</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>8</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -2188,16 +2188,16 @@
         <v>8</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>8</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -2225,16 +2225,16 @@
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -2265,13 +2265,13 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -2282,16 +2282,16 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -2302,16 +2302,16 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -2322,13 +2322,13 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -2339,16 +2339,16 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -2359,13 +2359,13 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
